--- a/codigo_final_organizado/Simulaciones/lineal_NO_estacionario/resultados_2_ESCENARIOS_ARIMA.xlsx
+++ b/codigo_final_organizado/Simulaciones/lineal_NO_estacionario/resultados_2_ESCENARIOS_ARIMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,34 +523,34 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>-29.58594266002269</v>
+        <v>25.77679270376048</v>
       </c>
       <c r="F2" t="n">
-        <v>2.681067199927629</v>
+        <v>25.90436669375959</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4366558027690844</v>
+        <v>4.048033501727672</v>
       </c>
       <c r="H2" t="n">
-        <v>4.532940073709877</v>
+        <v>27.29267647397127</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2554408277737379</v>
+        <v>6.071175877193759</v>
       </c>
       <c r="J2" t="n">
-        <v>4.23516381763151</v>
+        <v>8.942386382196919</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3624949028901251</v>
+        <v>1.696148608704593</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4028399040147183</v>
+        <v>1.567855507710698</v>
       </c>
       <c r="M2" t="n">
-        <v>0.299206621303866</v>
+        <v>8.004272354796516</v>
       </c>
       <c r="N2" t="n">
-        <v>0.278200043162896</v>
+        <v>0.2727493324536057</v>
       </c>
     </row>
     <row r="3">
@@ -571,34 +571,34 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>-29.81456892708401</v>
+        <v>27.31157121970884</v>
       </c>
       <c r="F3" t="n">
-        <v>2.80174553531458</v>
+        <v>27.19288844054008</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4450695696945479</v>
+        <v>5.448299549476426</v>
       </c>
       <c r="H3" t="n">
-        <v>4.785821902826894</v>
+        <v>28.46948084733522</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2930086071541268</v>
+        <v>7.483020494198572</v>
       </c>
       <c r="J3" t="n">
-        <v>4.241420477219974</v>
+        <v>9.269597534562529</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3355957624916112</v>
+        <v>1.258594310908949</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3663125512210028</v>
+        <v>1.053593098787704</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3272828952887091</v>
+        <v>9.8882084840251</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2567113429379894</v>
+        <v>0.7580240025328</v>
       </c>
     </row>
     <row r="4">
@@ -619,34 +619,34 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-28.50311534103377</v>
+        <v>28.12308079889016</v>
       </c>
       <c r="F4" t="n">
-        <v>2.092913993029931</v>
+        <v>27.78692106337067</v>
       </c>
       <c r="G4" t="n">
-        <v>1.030662228272596</v>
+        <v>6.064843030496117</v>
       </c>
       <c r="H4" t="n">
-        <v>4.002754028915264</v>
+        <v>29.12995004728849</v>
       </c>
       <c r="I4" t="n">
-        <v>1.254924452815963</v>
+        <v>7.978040651302956</v>
       </c>
       <c r="J4" t="n">
-        <v>4.362355469667772</v>
+        <v>9.388139097053813</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9457757874351688</v>
+        <v>1.424450251754674</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9924251903925283</v>
+        <v>1.241888981421539</v>
       </c>
       <c r="M4" t="n">
-        <v>1.259731919763652</v>
+        <v>10.22649265551425</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9224116613905352</v>
+        <v>0.2236291646661458</v>
       </c>
     </row>
     <row r="5">
@@ -667,34 +667,34 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>-30.15175627172991</v>
+        <v>26.92358613791478</v>
       </c>
       <c r="F5" t="n">
-        <v>2.97458711734063</v>
+        <v>26.36686477269899</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8173242765323839</v>
+        <v>13.46044317679891</v>
       </c>
       <c r="H5" t="n">
-        <v>4.914973610800699</v>
+        <v>27.97163783467629</v>
       </c>
       <c r="I5" t="n">
-        <v>1.022477477940652</v>
+        <v>6.660852608284669</v>
       </c>
       <c r="J5" t="n">
-        <v>4.235203517599535</v>
+        <v>8.839715312196445</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2307554986719199</v>
+        <v>1.024645684749753</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1856648199386892</v>
+        <v>1.262521135370749</v>
       </c>
       <c r="M5" t="n">
-        <v>0.913872657089057</v>
+        <v>9.827963373324518</v>
       </c>
       <c r="N5" t="n">
-        <v>2.205286365748649</v>
+        <v>1.253804660087475</v>
       </c>
     </row>
     <row r="6">
@@ -715,34 +715,34 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>-31.54265518772688</v>
+        <v>25.79666630224374</v>
       </c>
       <c r="F6" t="n">
-        <v>3.873041317880434</v>
+        <v>25.0686950167425</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4472944267185377</v>
+        <v>12.8164289063314</v>
       </c>
       <c r="H6" t="n">
-        <v>5.758602905672722</v>
+        <v>26.05019568599487</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5016979429192732</v>
+        <v>5.137717990772029</v>
       </c>
       <c r="J6" t="n">
-        <v>4.146607954253606</v>
+        <v>8.468449656896126</v>
       </c>
       <c r="K6" t="n">
-        <v>3.646199472177801</v>
+        <v>2.283924124297533</v>
       </c>
       <c r="L6" t="n">
-        <v>3.768053516875009</v>
+        <v>2.538260282119556</v>
       </c>
       <c r="M6" t="n">
-        <v>2.970308734086951</v>
+        <v>8.079551400881245</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4192820149176986</v>
+        <v>0.2136406403526137</v>
       </c>
     </row>
     <row r="7">
@@ -763,34 +763,34 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>-32.33977200755232</v>
+        <v>25.43791639263172</v>
       </c>
       <c r="F7" t="n">
-        <v>4.405015345892167</v>
+        <v>24.52869077158319</v>
       </c>
       <c r="G7" t="n">
-        <v>4.808830260070316</v>
+        <v>12.62304556724226</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05875322892561</v>
+        <v>25.26501132121326</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3025399948262968</v>
+        <v>5.522134665334667</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1116736165064</v>
+        <v>8.342051144772441</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4213397145171018</v>
+        <v>0.3888010061631926</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4693652910580814</v>
+        <v>0.4929765189109352</v>
       </c>
       <c r="M7" t="n">
-        <v>3.105238331966757</v>
+        <v>7.486392247146318</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2436592545588592</v>
+        <v>0.4709606395229698</v>
       </c>
     </row>
     <row r="8">
@@ -811,34 +811,34 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>-32.60175979174303</v>
+        <v>24.40291983537906</v>
       </c>
       <c r="F8" t="n">
-        <v>4.571591622504627</v>
+        <v>23.39678691308621</v>
       </c>
       <c r="G8" t="n">
-        <v>4.84615844154156</v>
+        <v>9.077045797854424</v>
       </c>
       <c r="H8" t="n">
-        <v>6.878788358475596</v>
+        <v>26.02524315958682</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3465501265942167</v>
+        <v>4.417761633609904</v>
       </c>
       <c r="J8" t="n">
-        <v>4.100814708648372</v>
+        <v>8.129101582141892</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2171352842091777</v>
+        <v>0.2593765398413435</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1715260093924872</v>
+        <v>0.3106894100401535</v>
       </c>
       <c r="M8" t="n">
-        <v>3.035496513505491</v>
+        <v>6.879852122837689</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3203305540499291</v>
+        <v>0.3172260368983103</v>
       </c>
     </row>
     <row r="9">
@@ -859,34 +859,34 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-33.15706582199781</v>
+        <v>22.96712407901793</v>
       </c>
       <c r="F9" t="n">
-        <v>4.953503871770073</v>
+        <v>21.96895461207479</v>
       </c>
       <c r="G9" t="n">
-        <v>4.272452186762893</v>
+        <v>7.726656597302703</v>
       </c>
       <c r="H9" t="n">
-        <v>6.618212853328254</v>
+        <v>23.13144374170469</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3018757813630185</v>
+        <v>3.661081416711366</v>
       </c>
       <c r="J9" t="n">
-        <v>4.081480053611164</v>
+        <v>7.918434877798219</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4109440230163973</v>
+        <v>1.401420279128226</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4731212061385031</v>
+        <v>1.557106890942705</v>
       </c>
       <c r="M9" t="n">
-        <v>2.516241259707706</v>
+        <v>5.824078126747813</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2387399762109611</v>
+        <v>0.3968598578991298</v>
       </c>
     </row>
     <row r="10">
@@ -907,34 +907,34 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>-35.30250182565474</v>
+        <v>23.47008885455995</v>
       </c>
       <c r="F10" t="n">
-        <v>6.56543992008093</v>
+        <v>22.21431776218486</v>
       </c>
       <c r="G10" t="n">
-        <v>3.012497900760503</v>
+        <v>8.499590002494411</v>
       </c>
       <c r="H10" t="n">
-        <v>8.044003018260662</v>
+        <v>23.5233201319141</v>
       </c>
       <c r="I10" t="n">
-        <v>1.284235318366928</v>
+        <v>4.191352181929099</v>
       </c>
       <c r="J10" t="n">
-        <v>4.09468670805246</v>
+        <v>7.989939888122759</v>
       </c>
       <c r="K10" t="n">
-        <v>1.925080435117391</v>
+        <v>0.2238526370027079</v>
       </c>
       <c r="L10" t="n">
-        <v>1.929877632695164</v>
+        <v>0.2605953481458915</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8839114798430601</v>
+        <v>6.175841184074944</v>
       </c>
       <c r="N10" t="n">
-        <v>1.11618924361801</v>
+        <v>1.218958568216963</v>
       </c>
     </row>
     <row r="11">
@@ -955,34 +955,34 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>-36.47631154450049</v>
+        <v>21.48748792140033</v>
       </c>
       <c r="F11" t="n">
-        <v>7.525082569754174</v>
+        <v>20.38099350983523</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3344639530155644</v>
+        <v>6.74854761785982</v>
       </c>
       <c r="H11" t="n">
-        <v>8.749138871142843</v>
+        <v>22.31816907549879</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4178954427852037</v>
+        <v>3.036995141131285</v>
       </c>
       <c r="J11" t="n">
-        <v>4.137359921328993</v>
+        <v>7.76264355408644</v>
       </c>
       <c r="K11" t="n">
-        <v>2.469499451720732</v>
+        <v>0.2582717380671372</v>
       </c>
       <c r="L11" t="n">
-        <v>2.447758641113865</v>
+        <v>0.2831698791038155</v>
       </c>
       <c r="M11" t="n">
-        <v>5.435085870870592</v>
+        <v>5.42257764916252</v>
       </c>
       <c r="N11" t="n">
-        <v>0.200069985540875</v>
+        <v>1.40607494056932</v>
       </c>
     </row>
     <row r="12">
@@ -1003,34 +1003,34 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>-35.57062813352832</v>
+        <v>18.42521173482216</v>
       </c>
       <c r="F12" t="n">
-        <v>6.726971257169222</v>
+        <v>17.77768485207423</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6659610915007461</v>
+        <v>4.188814006446254</v>
       </c>
       <c r="H12" t="n">
-        <v>8.242655312723786</v>
+        <v>19.3960255997983</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8408793820463439</v>
+        <v>1.313881584092455</v>
       </c>
       <c r="J12" t="n">
-        <v>4.009721768723754</v>
+        <v>7.46878357707687</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8381314225884035</v>
+        <v>4.561179990807794</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9449949180881476</v>
+        <v>4.717913920813221</v>
       </c>
       <c r="M12" t="n">
-        <v>5.686827823667138</v>
+        <v>3.603717699625218</v>
       </c>
       <c r="N12" t="n">
-        <v>1.421025956673147</v>
+        <v>0.8349903617888598</v>
       </c>
     </row>
     <row r="13">
@@ -1051,45 +1051,43 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>-36.47051115076395</v>
+        <v>15.20591596892681</v>
       </c>
       <c r="F13" t="n">
-        <v>7.446340329932005</v>
+        <v>15.19741377188373</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070226999824662</v>
+        <v>2.154793125159821</v>
       </c>
       <c r="H13" t="n">
-        <v>8.624986786075617</v>
+        <v>16.38215865987517</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5152114285714926</v>
+        <v>1.067772487392857</v>
       </c>
       <c r="J13" t="n">
-        <v>3.992835057052819</v>
+        <v>7.199033788099898</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3569372630863822</v>
+        <v>4.269030294329501</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3704371319888551</v>
+        <v>4.30592175643252</v>
       </c>
       <c r="M13" t="n">
-        <v>4.707100216209624</v>
+        <v>2.873105880467877</v>
       </c>
       <c r="N13" t="n">
-        <v>1.748476091700546</v>
+        <v>0.8111692337163741</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
+      <c r="A14" t="n">
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ARIMA(1,1,0)</t>
+          <t>ARIMA(0,1,1)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1100,38 +1098,40 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>-9.513637903215555</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.718108340049701</v>
+        <v>2.645789493541599</v>
       </c>
       <c r="G14" t="n">
-        <v>1.84896642812195</v>
+        <v>1.083983864994918</v>
       </c>
       <c r="H14" t="n">
-        <v>6.434302579238152</v>
+        <v>3.371948629830945</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6113947319297712</v>
+        <v>0.3885877636117463</v>
       </c>
       <c r="J14" t="n">
-        <v>4.145776922524696</v>
+        <v>4.247907065922385</v>
       </c>
       <c r="K14" t="n">
-        <v>1.013324084826851</v>
+        <v>0.9511607005443572</v>
       </c>
       <c r="L14" t="n">
-        <v>1.043531401076421</v>
+        <v>0.9677112246862788</v>
       </c>
       <c r="M14" t="n">
-        <v>2.595025360275217</v>
+        <v>1.54291728662953</v>
       </c>
       <c r="N14" t="n">
-        <v>0.780865207542508</v>
+        <v>0.6417114038963566</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1147,39 +1147,39 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>-8.577983846225132</v>
+        <v>-10.33987893437161</v>
       </c>
       <c r="F15" t="n">
-        <v>7.743955082521357</v>
+        <v>2.84803873786775</v>
       </c>
       <c r="G15" t="n">
-        <v>1.254746055263369</v>
+        <v>0.6001115316167608</v>
       </c>
       <c r="H15" t="n">
-        <v>8.998153386387486</v>
+        <v>3.416308809229871</v>
       </c>
       <c r="I15" t="n">
-        <v>1.90171316519539</v>
+        <v>0.388586484063659</v>
       </c>
       <c r="J15" t="n">
-        <v>3.204987036925643</v>
+        <v>4.175590510750896</v>
       </c>
       <c r="K15" t="n">
-        <v>1.002166424534394</v>
+        <v>1.115036637136485</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9246439662262138</v>
+        <v>1.133358749988076</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4360814754252719</v>
+        <v>0.9143657848847216</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4987269295370894</v>
+        <v>0.2626837967040409</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1195,39 +1195,39 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.953460282463475</v>
+        <v>-9.678583996826713</v>
       </c>
       <c r="F16" t="n">
-        <v>8.297078346011091</v>
+        <v>2.652018283071386</v>
       </c>
       <c r="G16" t="n">
-        <v>1.857350623978009</v>
+        <v>0.4713446153494197</v>
       </c>
       <c r="H16" t="n">
-        <v>9.621471129290493</v>
+        <v>3.100276142424027</v>
       </c>
       <c r="I16" t="n">
-        <v>1.689659684837552</v>
+        <v>0.9034162319163941</v>
       </c>
       <c r="J16" t="n">
-        <v>3.288349038220921</v>
+        <v>4.275351254135342</v>
       </c>
       <c r="K16" t="n">
-        <v>1.089282507095443</v>
+        <v>0.3099568895686475</v>
       </c>
       <c r="L16" t="n">
-        <v>1.014818900918509</v>
+        <v>0.3500321774206513</v>
       </c>
       <c r="M16" t="n">
-        <v>1.466141945203656</v>
+        <v>0.6286480617335216</v>
       </c>
       <c r="N16" t="n">
-        <v>0.300182183536442</v>
+        <v>0.4420762879481929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1243,39 +1243,39 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.735966954492438</v>
+        <v>-9.16664909727341</v>
       </c>
       <c r="F17" t="n">
-        <v>9.445894172263333</v>
+        <v>2.515701649781903</v>
       </c>
       <c r="G17" t="n">
-        <v>2.8025693161181</v>
+        <v>0.4945780097958014</v>
       </c>
       <c r="H17" t="n">
-        <v>10.26914209781038</v>
+        <v>3.061849299903801</v>
       </c>
       <c r="I17" t="n">
-        <v>2.359629772859011</v>
+        <v>1.105125487722635</v>
       </c>
       <c r="J17" t="n">
-        <v>3.64841945685189</v>
+        <v>4.353244288539578</v>
       </c>
       <c r="K17" t="n">
-        <v>1.044970975626593</v>
+        <v>0.8485175892015747</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9356213406849978</v>
+        <v>0.9200250365746905</v>
       </c>
       <c r="M17" t="n">
-        <v>2.623512706676684</v>
+        <v>0.3438073669416092</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7109553367565031</v>
+        <v>0.2235626348986565</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1291,39 +1291,39 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.816096710678536</v>
+        <v>-9.54525269354251</v>
       </c>
       <c r="F18" t="n">
-        <v>9.289976244156197</v>
+        <v>2.580147849716051</v>
       </c>
       <c r="G18" t="n">
-        <v>3.231286668961777</v>
+        <v>0.4367204530036024</v>
       </c>
       <c r="H18" t="n">
-        <v>10.66377404923948</v>
+        <v>3.105894491818567</v>
       </c>
       <c r="I18" t="n">
-        <v>1.637465909290966</v>
+        <v>0.5220824565464621</v>
       </c>
       <c r="J18" t="n">
-        <v>3.399392549006986</v>
+        <v>4.321998066729201</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7377527492777628</v>
+        <v>0.2589726304000478</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6230850535573181</v>
+        <v>0.228721342352765</v>
       </c>
       <c r="M18" t="n">
-        <v>3.105529386065359</v>
+        <v>0.5828479377361767</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2742546339254232</v>
+        <v>0.2582332359472873</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1339,39 +1339,39 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.479826790520777</v>
+        <v>-10.60866950796466</v>
       </c>
       <c r="F19" t="n">
-        <v>8.557053214261536</v>
+        <v>2.868980995227743</v>
       </c>
       <c r="G19" t="n">
-        <v>2.612786002610806</v>
+        <v>0.6065195826072526</v>
       </c>
       <c r="H19" t="n">
-        <v>9.841794471883894</v>
+        <v>3.543698969270177</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9937938731994653</v>
+        <v>0.384846471129465</v>
       </c>
       <c r="J19" t="n">
-        <v>3.067100592768333</v>
+        <v>4.208282851231152</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8425512633906488</v>
+        <v>0.884974239984561</v>
       </c>
       <c r="L19" t="n">
-        <v>1.150261811713126</v>
+        <v>0.914879528240053</v>
       </c>
       <c r="M19" t="n">
-        <v>4.539119154784097</v>
+        <v>0.90652685398622</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2470509763735929</v>
+        <v>0.5204247234018777</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1387,39 +1387,39 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.982374298030956</v>
+        <v>-11.00898165851836</v>
       </c>
       <c r="F20" t="n">
-        <v>8.972371950438015</v>
+        <v>2.992848603058789</v>
       </c>
       <c r="G20" t="n">
-        <v>3.193849578171742</v>
+        <v>0.4908770005380201</v>
       </c>
       <c r="H20" t="n">
-        <v>10.33223451832616</v>
+        <v>3.454203914324482</v>
       </c>
       <c r="I20" t="n">
-        <v>1.682405277713748</v>
+        <v>0.4147245535498089</v>
       </c>
       <c r="J20" t="n">
-        <v>3.11809806973999</v>
+        <v>4.172470203617474</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2559364822740307</v>
+        <v>0.7183200351237652</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1814549745765547</v>
+        <v>0.7253115806017532</v>
       </c>
       <c r="M20" t="n">
-        <v>5.315191465796966</v>
+        <v>0.9369003138120277</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6268533018404273</v>
+        <v>0.2559934816268089</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1435,39 +1435,39 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.390696074659365</v>
+        <v>-11.10656357758912</v>
       </c>
       <c r="F21" t="n">
-        <v>8.502060777647854</v>
+        <v>3.012537479261002</v>
       </c>
       <c r="G21" t="n">
-        <v>2.708639631276005</v>
+        <v>0.5115864902153533</v>
       </c>
       <c r="H21" t="n">
-        <v>9.602450833729588</v>
+        <v>3.541996415397302</v>
       </c>
       <c r="I21" t="n">
-        <v>1.247963618190564</v>
+        <v>0.6172825481268043</v>
       </c>
       <c r="J21" t="n">
-        <v>2.976508949657956</v>
+        <v>4.173149563667675</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2443878310913812</v>
+        <v>0.2352233765929164</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1902746875629279</v>
+        <v>0.2222901471063823</v>
       </c>
       <c r="M21" t="n">
-        <v>4.877679543258828</v>
+        <v>0.8993892949380956</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5555726209963738</v>
+        <v>0.238907042440035</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1483,39 +1483,39 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>-7.815315846174326</v>
+        <v>-10.9181669550724</v>
       </c>
       <c r="F22" t="n">
-        <v>8.025096676597864</v>
+        <v>2.926067486534526</v>
       </c>
       <c r="G22" t="n">
-        <v>2.246156480706654</v>
+        <v>0.4957814541221648</v>
       </c>
       <c r="H22" t="n">
-        <v>9.589508702002924</v>
+        <v>3.535947481033602</v>
       </c>
       <c r="I22" t="n">
-        <v>1.031561285180459</v>
+        <v>0.8316711449297997</v>
       </c>
       <c r="J22" t="n">
-        <v>2.892587181721452</v>
+        <v>4.20753787185806</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7199237829202001</v>
+        <v>0.2351275295931139</v>
       </c>
       <c r="L22" t="n">
-        <v>0.962232982271886</v>
+        <v>0.2101959242868373</v>
       </c>
       <c r="M22" t="n">
-        <v>4.343922471023374</v>
+        <v>0.9227228598958028</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2616805835805176</v>
+        <v>0.2959805999571739</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1531,39 +1531,39 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>-6.254283998949274</v>
+        <v>-10.72618923023164</v>
       </c>
       <c r="F23" t="n">
-        <v>9.450809982325664</v>
+        <v>2.838496741264493</v>
       </c>
       <c r="G23" t="n">
-        <v>3.582115703657669</v>
+        <v>0.4477892848857614</v>
       </c>
       <c r="H23" t="n">
-        <v>10.77199751363742</v>
+        <v>3.143442792744842</v>
       </c>
       <c r="I23" t="n">
-        <v>2.678871918379524</v>
+        <v>0.7346636383437153</v>
       </c>
       <c r="J23" t="n">
-        <v>3.194283066910167</v>
+        <v>4.241052783910519</v>
       </c>
       <c r="K23" t="n">
-        <v>1.074420499498782</v>
+        <v>0.3354270644351688</v>
       </c>
       <c r="L23" t="n">
-        <v>1.009617052777304</v>
+        <v>0.3716105443041782</v>
       </c>
       <c r="M23" t="n">
-        <v>5.891798175334959</v>
+        <v>0.835514025916457</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9776299313167903</v>
+        <v>0.2270805974820927</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1579,39 +1579,39 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>-5.227584097133239</v>
+        <v>-12.2001614671585</v>
       </c>
       <c r="F24" t="n">
-        <v>10.3678987596332</v>
+        <v>3.445005307451259</v>
       </c>
       <c r="G24" t="n">
-        <v>4.631392866077882</v>
+        <v>1.364515537768168</v>
       </c>
       <c r="H24" t="n">
-        <v>11.33366020772789</v>
+        <v>4.137111664744725</v>
       </c>
       <c r="I24" t="n">
-        <v>2.771621446172737</v>
+        <v>0.4615846735708008</v>
       </c>
       <c r="J24" t="n">
-        <v>3.542758092371621</v>
+        <v>4.079078276416849</v>
       </c>
       <c r="K24" t="n">
-        <v>2.031767553048913</v>
+        <v>0.8930313991182773</v>
       </c>
       <c r="L24" t="n">
-        <v>1.993873391682714</v>
+        <v>0.9329403452998882</v>
       </c>
       <c r="M24" t="n">
-        <v>6.929006891190131</v>
+        <v>1.800956509854866</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4294119913674094</v>
+        <v>1.061206442349944</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1627,130 +1627,34 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>-5.633680757127064</v>
+        <v>-12.44897834542954</v>
       </c>
       <c r="F25" t="n">
-        <v>9.887350552815338</v>
+        <v>3.561582093866257</v>
       </c>
       <c r="G25" t="n">
-        <v>6.167427851485496</v>
+        <v>0.2748203026106002</v>
       </c>
       <c r="H25" t="n">
-        <v>10.96753521831704</v>
+        <v>4.081477981861434</v>
       </c>
       <c r="I25" t="n">
-        <v>1.885382460412296</v>
+        <v>0.4179017311344939</v>
       </c>
       <c r="J25" t="n">
-        <v>3.281303838656445</v>
+        <v>4.06322600494675</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2429051768369772</v>
+        <v>1.180349583317209</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2130873484147158</v>
+        <v>1.251429361813499</v>
       </c>
       <c r="M25" t="n">
-        <v>6.477753666988625</v>
+        <v>0.3445882767451607</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2514636546073538</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>12</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ARIMA(0,1,1)</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-4.786015636256479</v>
-      </c>
-      <c r="F26" t="n">
-        <v>10.6344533998797</v>
-      </c>
-      <c r="G26" t="n">
-        <v>4.626547049726421</v>
-      </c>
-      <c r="H26" t="n">
-        <v>12.12935980400825</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.788411726900008</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.561770981141018</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.3472428345999672</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.245231568122634</v>
-      </c>
-      <c r="M26" t="n">
-        <v>7.350861337109541</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.7879586251561674</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ARIMA(0,1,1)</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>9.097833263212596</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.242905652336161</v>
-      </c>
-      <c r="H27" t="n">
-        <v>10.34342349436342</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.889040011527643</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.264629904497702</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.8027756733495912</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.787016923209075</v>
-      </c>
-      <c r="M27" t="n">
-        <v>4.44638318490479</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.4934783974161742</v>
+        <v>0.3421100521710343</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/Simulaciones/lineal_NO_estacionario/resultados_2_ESCENARIOS_ARIMA.xlsx
+++ b/codigo_final_organizado/Simulaciones/lineal_NO_estacionario/resultados_2_ESCENARIOS_ARIMA.xlsx
@@ -526,19 +526,19 @@
         <v>25.77679270376048</v>
       </c>
       <c r="F2" t="n">
-        <v>25.90436669375959</v>
+        <v>26.38884429336736</v>
       </c>
       <c r="G2" t="n">
         <v>4.048033501727672</v>
       </c>
       <c r="H2" t="n">
-        <v>27.29267647397127</v>
+        <v>27.25445264277199</v>
       </c>
       <c r="I2" t="n">
-        <v>6.071175877193759</v>
+        <v>7.178023577499991</v>
       </c>
       <c r="J2" t="n">
-        <v>8.942386382196919</v>
+        <v>7.725743978589128</v>
       </c>
       <c r="K2" t="n">
         <v>1.696148608704593</v>
@@ -550,7 +550,7 @@
         <v>8.004272354796516</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2727493324536057</v>
+        <v>0.2480225622313161</v>
       </c>
     </row>
     <row r="3">
@@ -574,31 +574,31 @@
         <v>27.31157121970884</v>
       </c>
       <c r="F3" t="n">
-        <v>27.19288844054008</v>
+        <v>27.67947691269417</v>
       </c>
       <c r="G3" t="n">
         <v>5.448299549476426</v>
       </c>
       <c r="H3" t="n">
-        <v>28.46948084733522</v>
+        <v>27.74069953174611</v>
       </c>
       <c r="I3" t="n">
-        <v>7.483020494198572</v>
+        <v>8.659041378755036</v>
       </c>
       <c r="J3" t="n">
-        <v>9.269597534562529</v>
+        <v>7.913223349077937</v>
       </c>
       <c r="K3" t="n">
         <v>1.258594310908949</v>
       </c>
       <c r="L3" t="n">
-        <v>1.053593098787704</v>
+        <v>3.100467703943578</v>
       </c>
       <c r="M3" t="n">
         <v>9.8882084840251</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7580240025328</v>
+        <v>0.8682714849357696</v>
       </c>
     </row>
     <row r="4">
@@ -622,31 +622,31 @@
         <v>28.12308079889016</v>
       </c>
       <c r="F4" t="n">
-        <v>27.78692106337067</v>
+        <v>28.27288603096032</v>
       </c>
       <c r="G4" t="n">
         <v>6.064843030496117</v>
       </c>
       <c r="H4" t="n">
-        <v>29.12995004728849</v>
+        <v>29.59199753506476</v>
       </c>
       <c r="I4" t="n">
-        <v>7.978040651302956</v>
+        <v>9.508121753665346</v>
       </c>
       <c r="J4" t="n">
-        <v>9.388139097053813</v>
+        <v>7.958607729535689</v>
       </c>
       <c r="K4" t="n">
         <v>1.424450251754674</v>
       </c>
       <c r="L4" t="n">
-        <v>1.241888981421539</v>
+        <v>3.911977283124905</v>
       </c>
       <c r="M4" t="n">
         <v>10.22649265551425</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2236291646661458</v>
+        <v>0.2737584616091717</v>
       </c>
     </row>
     <row r="5">
@@ -670,31 +670,31 @@
         <v>26.92358613791478</v>
       </c>
       <c r="F5" t="n">
-        <v>26.36686477269899</v>
+        <v>26.84805945593586</v>
       </c>
       <c r="G5" t="n">
         <v>13.46044317679891</v>
       </c>
       <c r="H5" t="n">
-        <v>27.97163783467629</v>
+        <v>27.52466958217565</v>
       </c>
       <c r="I5" t="n">
-        <v>6.660852608284669</v>
+        <v>8.140651392009939</v>
       </c>
       <c r="J5" t="n">
-        <v>8.839715312196445</v>
+        <v>7.548134475631093</v>
       </c>
       <c r="K5" t="n">
         <v>1.024645684749753</v>
       </c>
       <c r="L5" t="n">
-        <v>1.262521135370749</v>
+        <v>2.712482622149522</v>
       </c>
       <c r="M5" t="n">
         <v>9.827963373324518</v>
       </c>
       <c r="N5" t="n">
-        <v>1.253804660087475</v>
+        <v>1.089193391690594</v>
       </c>
     </row>
     <row r="6">
@@ -718,31 +718,31 @@
         <v>25.79666630224374</v>
       </c>
       <c r="F6" t="n">
-        <v>25.0686950167425</v>
+        <v>25.54199208562319</v>
       </c>
       <c r="G6" t="n">
         <v>12.8164289063314</v>
       </c>
       <c r="H6" t="n">
-        <v>26.05019568599487</v>
+        <v>26.01155197083243</v>
       </c>
       <c r="I6" t="n">
-        <v>5.137717990772029</v>
+        <v>6.843499207440418</v>
       </c>
       <c r="J6" t="n">
-        <v>8.468449656896126</v>
+        <v>7.278784620126929</v>
       </c>
       <c r="K6" t="n">
         <v>2.283924124297533</v>
       </c>
       <c r="L6" t="n">
-        <v>2.538260282119556</v>
+        <v>1.587609864603051</v>
       </c>
       <c r="M6" t="n">
         <v>8.079551400881245</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2136406403526137</v>
+        <v>0.2295687001863469</v>
       </c>
     </row>
     <row r="7">
@@ -766,31 +766,31 @@
         <v>25.43791639263172</v>
       </c>
       <c r="F7" t="n">
-        <v>24.52869077158319</v>
+        <v>24.99562737902271</v>
       </c>
       <c r="G7" t="n">
         <v>12.62304556724226</v>
       </c>
       <c r="H7" t="n">
-        <v>25.26501132121326</v>
+        <v>25.26681073416658</v>
       </c>
       <c r="I7" t="n">
-        <v>5.522134665334667</v>
+        <v>6.649759785242955</v>
       </c>
       <c r="J7" t="n">
-        <v>8.342051144772441</v>
+        <v>7.175367625362059</v>
       </c>
       <c r="K7" t="n">
         <v>0.3888010061631926</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4929765189109352</v>
+        <v>1.231454032230362</v>
       </c>
       <c r="M7" t="n">
         <v>7.486392247146318</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4709606395229698</v>
+        <v>0.60217061690214</v>
       </c>
     </row>
     <row r="8">
@@ -814,31 +814,31 @@
         <v>24.40291983537906</v>
       </c>
       <c r="F8" t="n">
-        <v>23.39678691308621</v>
+        <v>23.85366320880505</v>
       </c>
       <c r="G8" t="n">
         <v>9.077045797854424</v>
       </c>
       <c r="H8" t="n">
-        <v>26.02524315958682</v>
+        <v>25.7606110372136</v>
       </c>
       <c r="I8" t="n">
-        <v>4.417761633609904</v>
+        <v>5.741283396547754</v>
       </c>
       <c r="J8" t="n">
-        <v>8.129101582141892</v>
+        <v>7.020936897864535</v>
       </c>
       <c r="K8" t="n">
         <v>0.2593765398413435</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3106894100401535</v>
+        <v>0.4102107802364227</v>
       </c>
       <c r="M8" t="n">
         <v>6.879852122837689</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3172260368983103</v>
+        <v>0.3722568210927845</v>
       </c>
     </row>
     <row r="9">
@@ -862,31 +862,31 @@
         <v>22.96712407901793</v>
       </c>
       <c r="F9" t="n">
-        <v>21.96895461207479</v>
+        <v>22.41577226909466</v>
       </c>
       <c r="G9" t="n">
         <v>7.726656597302703</v>
       </c>
       <c r="H9" t="n">
-        <v>23.13144374170469</v>
+        <v>23.55004044172754</v>
       </c>
       <c r="I9" t="n">
-        <v>3.661081416711366</v>
+        <v>4.207604559957425</v>
       </c>
       <c r="J9" t="n">
-        <v>7.918434877798219</v>
+        <v>6.851594345650664</v>
       </c>
       <c r="K9" t="n">
         <v>1.401420279128226</v>
       </c>
       <c r="L9" t="n">
-        <v>1.557106890942705</v>
+        <v>0.4220388785950696</v>
       </c>
       <c r="M9" t="n">
         <v>5.824078126747813</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3968598578991298</v>
+        <v>0.3592497067836414</v>
       </c>
     </row>
     <row r="10">
@@ -910,31 +910,31 @@
         <v>23.47008885455995</v>
       </c>
       <c r="F10" t="n">
-        <v>22.21431776218486</v>
+        <v>22.66351699941429</v>
       </c>
       <c r="G10" t="n">
         <v>8.499590002494411</v>
       </c>
       <c r="H10" t="n">
-        <v>23.5233201319141</v>
+        <v>23.66748617903899</v>
       </c>
       <c r="I10" t="n">
-        <v>4.191352181929099</v>
+        <v>5.086482993125527</v>
       </c>
       <c r="J10" t="n">
-        <v>7.989939888122759</v>
+        <v>6.909275675652921</v>
       </c>
       <c r="K10" t="n">
         <v>0.2238526370027079</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2605953481458915</v>
+        <v>0.2645509247625299</v>
       </c>
       <c r="M10" t="n">
         <v>6.175841184074944</v>
       </c>
       <c r="N10" t="n">
-        <v>1.218958568216963</v>
+        <v>0.9581768297437723</v>
       </c>
     </row>
     <row r="11">
@@ -958,31 +958,31 @@
         <v>21.48748792140033</v>
       </c>
       <c r="F11" t="n">
-        <v>20.38099350983523</v>
+        <v>20.81667481561695</v>
       </c>
       <c r="G11" t="n">
         <v>6.74854761785982</v>
       </c>
       <c r="H11" t="n">
-        <v>22.31816907549879</v>
+        <v>22.21365562209478</v>
       </c>
       <c r="I11" t="n">
-        <v>3.036995141131285</v>
+        <v>3.387440512298052</v>
       </c>
       <c r="J11" t="n">
-        <v>7.76264355408644</v>
+        <v>6.716010493195187</v>
       </c>
       <c r="K11" t="n">
         <v>0.2582717380671372</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2831698791038155</v>
+        <v>1.736199019038345</v>
       </c>
       <c r="M11" t="n">
         <v>5.42257764916252</v>
       </c>
       <c r="N11" t="n">
-        <v>1.40607494056932</v>
+        <v>1.63227075919059</v>
       </c>
     </row>
     <row r="12">
@@ -1006,31 +1006,31 @@
         <v>18.42521173482216</v>
       </c>
       <c r="F12" t="n">
-        <v>17.77768485207423</v>
+        <v>18.20863591133639</v>
       </c>
       <c r="G12" t="n">
         <v>4.188814006446254</v>
       </c>
       <c r="H12" t="n">
-        <v>19.3960255997983</v>
+        <v>19.28450161634704</v>
       </c>
       <c r="I12" t="n">
-        <v>1.313881584092455</v>
+        <v>1.582492011778716</v>
       </c>
       <c r="J12" t="n">
-        <v>7.46878357707687</v>
+        <v>6.447397696910457</v>
       </c>
       <c r="K12" t="n">
         <v>4.561179990807794</v>
       </c>
       <c r="L12" t="n">
-        <v>4.717913920813221</v>
+        <v>4.795408174083222</v>
       </c>
       <c r="M12" t="n">
         <v>3.603717699625218</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8349903617888598</v>
+        <v>0.9166889945213713</v>
       </c>
     </row>
     <row r="13">
@@ -1054,31 +1054,31 @@
         <v>15.20591596892681</v>
       </c>
       <c r="F13" t="n">
-        <v>15.19741377188373</v>
+        <v>15.62418515037838</v>
       </c>
       <c r="G13" t="n">
         <v>2.154793125159821</v>
       </c>
       <c r="H13" t="n">
-        <v>16.38215865987517</v>
+        <v>16.52818048991558</v>
       </c>
       <c r="I13" t="n">
-        <v>1.067772487392857</v>
+        <v>1.091220449544552</v>
       </c>
       <c r="J13" t="n">
-        <v>7.199033788099898</v>
+        <v>6.194999230802507</v>
       </c>
       <c r="K13" t="n">
         <v>4.269030294329501</v>
       </c>
       <c r="L13" t="n">
-        <v>4.30592175643252</v>
+        <v>8.014703939978563</v>
       </c>
       <c r="M13" t="n">
         <v>2.873105880467877</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8111692337163741</v>
+        <v>0.6314215351574861</v>
       </c>
     </row>
     <row r="14">
@@ -1102,19 +1102,19 @@
         <v>-9.513637903215555</v>
       </c>
       <c r="F14" t="n">
-        <v>2.645789493541599</v>
+        <v>2.713024857441768</v>
       </c>
       <c r="G14" t="n">
         <v>1.083983864994918</v>
       </c>
       <c r="H14" t="n">
-        <v>3.371948629830945</v>
+        <v>3.461132737980023</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3885877636117463</v>
+        <v>0.6076242359217584</v>
       </c>
       <c r="J14" t="n">
-        <v>4.247907065922385</v>
+        <v>3.921643905914372</v>
       </c>
       <c r="K14" t="n">
         <v>0.9511607005443572</v>
@@ -1150,25 +1150,25 @@
         <v>-10.33987893437161</v>
       </c>
       <c r="F15" t="n">
-        <v>2.84803873786775</v>
+        <v>2.914031874512331</v>
       </c>
       <c r="G15" t="n">
         <v>0.6001115316167608</v>
       </c>
       <c r="H15" t="n">
-        <v>3.416308809229871</v>
+        <v>3.549364824109009</v>
       </c>
       <c r="I15" t="n">
-        <v>0.388586484063659</v>
+        <v>0.5071369742717423</v>
       </c>
       <c r="J15" t="n">
-        <v>4.175590510750896</v>
+        <v>3.859879938766589</v>
       </c>
       <c r="K15" t="n">
         <v>1.115036637136485</v>
       </c>
       <c r="L15" t="n">
-        <v>1.133358749988076</v>
+        <v>1.775326769330522</v>
       </c>
       <c r="M15" t="n">
         <v>0.9143657848847216</v>
@@ -1198,25 +1198,25 @@
         <v>-9.678583996826713</v>
       </c>
       <c r="F16" t="n">
-        <v>2.652018283071386</v>
+        <v>2.71835923095414</v>
       </c>
       <c r="G16" t="n">
         <v>0.4713446153494197</v>
       </c>
       <c r="H16" t="n">
-        <v>3.100276142424027</v>
+        <v>3.103258029216448</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9034162319163941</v>
+        <v>0.6891476966100742</v>
       </c>
       <c r="J16" t="n">
-        <v>4.275351254135342</v>
+        <v>3.968643637828944</v>
       </c>
       <c r="K16" t="n">
         <v>0.3099568895686475</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3500321774206513</v>
+        <v>1.124482273704517</v>
       </c>
       <c r="M16" t="n">
         <v>0.6286480617335216</v>
@@ -1246,25 +1246,25 @@
         <v>-9.16664909727341</v>
       </c>
       <c r="F17" t="n">
-        <v>2.515701649781903</v>
+        <v>2.58070702680408</v>
       </c>
       <c r="G17" t="n">
         <v>0.4945780097958014</v>
       </c>
       <c r="H17" t="n">
-        <v>3.061849299903801</v>
+        <v>2.984728619664634</v>
       </c>
       <c r="I17" t="n">
-        <v>1.105125487722635</v>
+        <v>0.7129914068430308</v>
       </c>
       <c r="J17" t="n">
-        <v>4.353244288539578</v>
+        <v>4.055253480979948</v>
       </c>
       <c r="K17" t="n">
         <v>0.8485175892015747</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9200250365746905</v>
+        <v>0.6545325715981586</v>
       </c>
       <c r="M17" t="n">
         <v>0.3438073669416092</v>
@@ -1294,25 +1294,25 @@
         <v>-9.54525269354251</v>
       </c>
       <c r="F18" t="n">
-        <v>2.580147849716051</v>
+        <v>2.646447249450995</v>
       </c>
       <c r="G18" t="n">
         <v>0.4367204530036024</v>
       </c>
       <c r="H18" t="n">
-        <v>3.105894491818567</v>
+        <v>3.057552617977406</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5220824565464621</v>
+        <v>0.4074878344424646</v>
       </c>
       <c r="J18" t="n">
-        <v>4.321998066729201</v>
+        <v>4.031563077136536</v>
       </c>
       <c r="K18" t="n">
         <v>0.2589726304000478</v>
       </c>
       <c r="L18" t="n">
-        <v>0.228721342352765</v>
+        <v>0.9970497501096921</v>
       </c>
       <c r="M18" t="n">
         <v>0.5828479377361767</v>
@@ -1342,25 +1342,25 @@
         <v>-10.60866950796466</v>
       </c>
       <c r="F19" t="n">
-        <v>2.868980995227743</v>
+        <v>2.930790275888763</v>
       </c>
       <c r="G19" t="n">
         <v>0.6065195826072526</v>
       </c>
       <c r="H19" t="n">
-        <v>3.543698969270177</v>
+        <v>3.59160502022614</v>
       </c>
       <c r="I19" t="n">
-        <v>0.384846471129465</v>
+        <v>0.5619756823561046</v>
       </c>
       <c r="J19" t="n">
-        <v>4.208282851231152</v>
+        <v>3.92460231278308</v>
       </c>
       <c r="K19" t="n">
         <v>0.884974239984561</v>
       </c>
       <c r="L19" t="n">
-        <v>0.914879528240053</v>
+        <v>2.041429437187643</v>
       </c>
       <c r="M19" t="n">
         <v>0.90652685398622</v>
@@ -1390,25 +1390,25 @@
         <v>-11.00898165851836</v>
       </c>
       <c r="F20" t="n">
-        <v>2.992848603058789</v>
+        <v>3.051435999246952</v>
       </c>
       <c r="G20" t="n">
         <v>0.4908770005380201</v>
       </c>
       <c r="H20" t="n">
-        <v>3.454203914324482</v>
+        <v>3.353642042453706</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4147245535498089</v>
+        <v>0.4249044346260378</v>
       </c>
       <c r="J20" t="n">
-        <v>4.172470203617474</v>
+        <v>3.89541284571393</v>
       </c>
       <c r="K20" t="n">
         <v>0.7183200351237652</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7253115806017532</v>
+        <v>2.440782936632707</v>
       </c>
       <c r="M20" t="n">
         <v>0.9369003138120277</v>
@@ -1438,25 +1438,25 @@
         <v>-11.10656357758912</v>
       </c>
       <c r="F21" t="n">
-        <v>3.012537479261002</v>
+        <v>3.070495435058034</v>
       </c>
       <c r="G21" t="n">
         <v>0.5115864902153533</v>
       </c>
       <c r="H21" t="n">
-        <v>3.541996415397302</v>
+        <v>3.542000770356989</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6172825481268043</v>
+        <v>0.4268472660096853</v>
       </c>
       <c r="J21" t="n">
-        <v>4.173149563667675</v>
+        <v>3.901743553532211</v>
       </c>
       <c r="K21" t="n">
         <v>0.2352233765929164</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2222901471063823</v>
+        <v>2.538364855703463</v>
       </c>
       <c r="M21" t="n">
         <v>0.8993892949380956</v>
@@ -1486,25 +1486,25 @@
         <v>-10.9181669550724</v>
       </c>
       <c r="F22" t="n">
-        <v>2.926067486534526</v>
+        <v>2.984332605994403</v>
       </c>
       <c r="G22" t="n">
         <v>0.4957814541221648</v>
       </c>
       <c r="H22" t="n">
-        <v>3.535947481033602</v>
+        <v>3.569382153133348</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8316711449297997</v>
+        <v>0.5007390406270682</v>
       </c>
       <c r="J22" t="n">
-        <v>4.20753787185806</v>
+        <v>3.940570747341519</v>
       </c>
       <c r="K22" t="n">
         <v>0.2351275295931139</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2101959242868373</v>
+        <v>2.349968233186741</v>
       </c>
       <c r="M22" t="n">
         <v>0.9227228598958028</v>
@@ -1534,25 +1534,25 @@
         <v>-10.72618923023164</v>
       </c>
       <c r="F23" t="n">
-        <v>2.838496741264493</v>
+        <v>2.897713609847562</v>
       </c>
       <c r="G23" t="n">
         <v>0.4477892848857614</v>
       </c>
       <c r="H23" t="n">
-        <v>3.143442792744842</v>
+        <v>3.087841910245526</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7346636383437153</v>
+        <v>0.5291812806323573</v>
       </c>
       <c r="J23" t="n">
-        <v>4.241052783910519</v>
+        <v>3.977664966950252</v>
       </c>
       <c r="K23" t="n">
         <v>0.3354270644351688</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3716105443041782</v>
+        <v>2.157990508345986</v>
       </c>
       <c r="M23" t="n">
         <v>0.835514025916457</v>
@@ -1582,25 +1582,25 @@
         <v>-12.2001614671585</v>
       </c>
       <c r="F24" t="n">
-        <v>3.445005307451259</v>
+        <v>3.471467837435296</v>
       </c>
       <c r="G24" t="n">
         <v>1.364515537768168</v>
       </c>
       <c r="H24" t="n">
-        <v>4.137111664744725</v>
+        <v>3.960322399360249</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4615846735708008</v>
+        <v>0.6896507418452442</v>
       </c>
       <c r="J24" t="n">
-        <v>4.079078276416849</v>
+        <v>3.819206269810802</v>
       </c>
       <c r="K24" t="n">
         <v>0.8930313991182773</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9329403452998882</v>
+        <v>3.631962745272848</v>
       </c>
       <c r="M24" t="n">
         <v>1.800956509854866</v>
@@ -1630,25 +1630,25 @@
         <v>-12.44897834542954</v>
       </c>
       <c r="F25" t="n">
-        <v>3.561582093866257</v>
+        <v>3.578279186158984</v>
       </c>
       <c r="G25" t="n">
         <v>0.2748203026106002</v>
       </c>
       <c r="H25" t="n">
-        <v>4.081477981861434</v>
+        <v>4.045898335052354</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4179017311344939</v>
+        <v>0.4235226668603078</v>
       </c>
       <c r="J25" t="n">
-        <v>4.06322600494675</v>
+        <v>3.805887039820029</v>
       </c>
       <c r="K25" t="n">
         <v>1.180349583317209</v>
       </c>
       <c r="L25" t="n">
-        <v>1.251429361813499</v>
+        <v>3.880779623543889</v>
       </c>
       <c r="M25" t="n">
         <v>0.3445882767451607</v>

--- a/codigo_final_organizado/Simulaciones/lineal_NO_estacionario/resultados_2_ESCENARIOS_ARIMA.xlsx
+++ b/codigo_final_organizado/Simulaciones/lineal_NO_estacionario/resultados_2_ESCENARIOS_ARIMA.xlsx
@@ -538,13 +538,13 @@
         <v>7.178023577499991</v>
       </c>
       <c r="J2" t="n">
-        <v>7.725743978589128</v>
+        <v>7.753890582708475</v>
       </c>
       <c r="K2" t="n">
         <v>1.696148608704593</v>
       </c>
       <c r="L2" t="n">
-        <v>1.567855507710698</v>
+        <v>1.640365938249483</v>
       </c>
       <c r="M2" t="n">
         <v>8.004272354796516</v>
@@ -586,13 +586,13 @@
         <v>8.659041378755036</v>
       </c>
       <c r="J3" t="n">
-        <v>7.913223349077937</v>
+        <v>8.041012805668172</v>
       </c>
       <c r="K3" t="n">
         <v>1.258594310908949</v>
       </c>
       <c r="L3" t="n">
-        <v>3.100467703943578</v>
+        <v>3.168949587529626</v>
       </c>
       <c r="M3" t="n">
         <v>9.8882084840251</v>
@@ -634,13 +634,13 @@
         <v>9.508121753665346</v>
       </c>
       <c r="J4" t="n">
-        <v>7.958607729535689</v>
+        <v>8.143101297267171</v>
       </c>
       <c r="K4" t="n">
         <v>1.424450251754674</v>
       </c>
       <c r="L4" t="n">
-        <v>3.911977283124905</v>
+        <v>3.980459166710953</v>
       </c>
       <c r="M4" t="n">
         <v>10.22649265551425</v>
@@ -682,13 +682,13 @@
         <v>8.140651392009939</v>
       </c>
       <c r="J5" t="n">
-        <v>7.548134475631093</v>
+        <v>7.654778896716499</v>
       </c>
       <c r="K5" t="n">
         <v>1.024645684749753</v>
       </c>
       <c r="L5" t="n">
-        <v>2.712482622149522</v>
+        <v>2.78096450573557</v>
       </c>
       <c r="M5" t="n">
         <v>9.827963373324518</v>
@@ -730,13 +730,13 @@
         <v>6.843499207440418</v>
       </c>
       <c r="J6" t="n">
-        <v>7.278784620126929</v>
+        <v>7.355878924910716</v>
       </c>
       <c r="K6" t="n">
         <v>2.283924124297533</v>
       </c>
       <c r="L6" t="n">
-        <v>1.587609864603051</v>
+        <v>1.659683075975207</v>
       </c>
       <c r="M6" t="n">
         <v>8.079551400881245</v>
@@ -778,13 +778,13 @@
         <v>6.649759785242955</v>
       </c>
       <c r="J7" t="n">
-        <v>7.175367625362059</v>
+        <v>7.260943120769692</v>
       </c>
       <c r="K7" t="n">
         <v>0.3888010061631926</v>
       </c>
       <c r="L7" t="n">
-        <v>1.231454032230362</v>
+        <v>1.311750924950219</v>
       </c>
       <c r="M7" t="n">
         <v>7.486392247146318</v>
@@ -826,13 +826,13 @@
         <v>5.741283396547754</v>
       </c>
       <c r="J8" t="n">
-        <v>7.020936897864535</v>
+        <v>7.093102683994399</v>
       </c>
       <c r="K8" t="n">
         <v>0.2593765398413435</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4102107802364227</v>
+        <v>0.4963340482737552</v>
       </c>
       <c r="M8" t="n">
         <v>6.879852122837689</v>
@@ -874,13 +874,13 @@
         <v>4.207604559957425</v>
       </c>
       <c r="J9" t="n">
-        <v>6.851594345650664</v>
+        <v>6.920808703097292</v>
       </c>
       <c r="K9" t="n">
         <v>1.401420279128226</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4220388785950696</v>
+        <v>0.3627216552763695</v>
       </c>
       <c r="M9" t="n">
         <v>5.824078126747813</v>
@@ -922,13 +922,13 @@
         <v>5.086482993125527</v>
       </c>
       <c r="J10" t="n">
-        <v>6.909275675652921</v>
+        <v>6.983565512867058</v>
       </c>
       <c r="K10" t="n">
         <v>0.2238526370027079</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2645509247625299</v>
+        <v>0.2270390024008371</v>
       </c>
       <c r="M10" t="n">
         <v>6.175841184074944</v>
@@ -970,13 +970,13 @@
         <v>3.387440512298052</v>
       </c>
       <c r="J11" t="n">
-        <v>6.716010493195187</v>
+        <v>6.785013958627149</v>
       </c>
       <c r="K11" t="n">
         <v>0.2582717380671372</v>
       </c>
       <c r="L11" t="n">
-        <v>1.736199019038345</v>
+        <v>1.595377886359134</v>
       </c>
       <c r="M11" t="n">
         <v>5.42257764916252</v>
@@ -1018,13 +1018,13 @@
         <v>1.582492011778716</v>
       </c>
       <c r="J12" t="n">
-        <v>6.447397696910457</v>
+        <v>6.502521479593783</v>
       </c>
       <c r="K12" t="n">
         <v>4.561179990807794</v>
       </c>
       <c r="L12" t="n">
-        <v>4.795408174083222</v>
+        <v>4.649790550608018</v>
       </c>
       <c r="M12" t="n">
         <v>3.603717699625218</v>
@@ -1066,13 +1066,13 @@
         <v>1.091220449544552</v>
       </c>
       <c r="J13" t="n">
-        <v>6.194999230802507</v>
+        <v>6.227900085676524</v>
       </c>
       <c r="K13" t="n">
         <v>4.269030294329501</v>
       </c>
       <c r="L13" t="n">
-        <v>8.014703939978563</v>
+        <v>7.869086316503365</v>
       </c>
       <c r="M13" t="n">
         <v>2.873105880467877</v>
@@ -1114,13 +1114,13 @@
         <v>0.6076242359217584</v>
       </c>
       <c r="J14" t="n">
-        <v>3.921643905914372</v>
+        <v>4.614765467253378</v>
       </c>
       <c r="K14" t="n">
         <v>0.9511607005443572</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9677112246862788</v>
+        <v>0.9383607369115603</v>
       </c>
       <c r="M14" t="n">
         <v>1.54291728662953</v>
@@ -1162,13 +1162,13 @@
         <v>0.5071369742717423</v>
       </c>
       <c r="J15" t="n">
-        <v>3.859879938766589</v>
+        <v>4.547959936963774</v>
       </c>
       <c r="K15" t="n">
         <v>1.115036637136485</v>
       </c>
       <c r="L15" t="n">
-        <v>1.775326769330522</v>
+        <v>1.742011019337234</v>
       </c>
       <c r="M15" t="n">
         <v>0.9143657848847216</v>
@@ -1210,13 +1210,13 @@
         <v>0.6891476966100742</v>
       </c>
       <c r="J16" t="n">
-        <v>3.968643637828944</v>
+        <v>4.65399111902201</v>
       </c>
       <c r="K16" t="n">
         <v>0.3099568895686475</v>
       </c>
       <c r="L16" t="n">
-        <v>1.124482273704517</v>
+        <v>1.093777599097028</v>
       </c>
       <c r="M16" t="n">
         <v>0.6286480617335216</v>
@@ -1258,13 +1258,13 @@
         <v>0.7129914068430308</v>
       </c>
       <c r="J17" t="n">
-        <v>4.055253480979948</v>
+        <v>4.738177902174329</v>
       </c>
       <c r="K17" t="n">
         <v>0.8485175892015747</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6545325715981586</v>
+        <v>0.6336883705526255</v>
       </c>
       <c r="M17" t="n">
         <v>0.3438073669416092</v>
@@ -1306,13 +1306,13 @@
         <v>0.4074878344424646</v>
       </c>
       <c r="J18" t="n">
-        <v>4.031563077136536</v>
+        <v>4.713101227274123</v>
       </c>
       <c r="K18" t="n">
         <v>0.2589726304000478</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9970497501096921</v>
+        <v>0.9673456510876892</v>
       </c>
       <c r="M18" t="n">
         <v>0.5828479377361767</v>
@@ -1354,13 +1354,13 @@
         <v>0.5619756823561046</v>
       </c>
       <c r="J19" t="n">
-        <v>3.92460231278308</v>
+        <v>4.604981200736534</v>
       </c>
       <c r="K19" t="n">
         <v>0.884974239984561</v>
       </c>
       <c r="L19" t="n">
-        <v>2.041429437187643</v>
+        <v>2.008066509097609</v>
       </c>
       <c r="M19" t="n">
         <v>0.90652685398622</v>
@@ -1402,13 +1402,13 @@
         <v>0.4249044346260378</v>
       </c>
       <c r="J20" t="n">
-        <v>3.89541284571393</v>
+        <v>4.574514404008129</v>
       </c>
       <c r="K20" t="n">
         <v>0.7183200351237652</v>
       </c>
       <c r="L20" t="n">
-        <v>2.440782936632707</v>
+        <v>2.407420008542676</v>
       </c>
       <c r="M20" t="n">
         <v>0.9369003138120277</v>
@@ -1450,13 +1450,13 @@
         <v>0.4268472660096853</v>
       </c>
       <c r="J21" t="n">
-        <v>3.901743553532211</v>
+        <v>4.57940770810222</v>
       </c>
       <c r="K21" t="n">
         <v>0.2352233765929164</v>
       </c>
       <c r="L21" t="n">
-        <v>2.538364855703463</v>
+        <v>2.50500192761343</v>
       </c>
       <c r="M21" t="n">
         <v>0.8993892949380956</v>
@@ -1498,13 +1498,13 @@
         <v>0.5007390406270682</v>
       </c>
       <c r="J22" t="n">
-        <v>3.940570747341519</v>
+        <v>4.616943023205891</v>
       </c>
       <c r="K22" t="n">
         <v>0.2351275295931139</v>
       </c>
       <c r="L22" t="n">
-        <v>2.349968233186741</v>
+        <v>2.316605305096711</v>
       </c>
       <c r="M22" t="n">
         <v>0.9227228598958028</v>
@@ -1546,13 +1546,13 @@
         <v>0.5291812806323573</v>
       </c>
       <c r="J23" t="n">
-        <v>3.977664966950252</v>
+        <v>4.653239657890016</v>
       </c>
       <c r="K23" t="n">
         <v>0.3354270644351688</v>
       </c>
       <c r="L23" t="n">
-        <v>2.157990508345986</v>
+        <v>2.124627580255954</v>
       </c>
       <c r="M23" t="n">
         <v>0.835514025916457</v>
@@ -1594,13 +1594,13 @@
         <v>0.6896507418452442</v>
       </c>
       <c r="J24" t="n">
-        <v>3.819206269810802</v>
+        <v>4.494089830806232</v>
       </c>
       <c r="K24" t="n">
         <v>0.8930313991182773</v>
       </c>
       <c r="L24" t="n">
-        <v>3.631962745272848</v>
+        <v>3.598599817182818</v>
       </c>
       <c r="M24" t="n">
         <v>1.800956509854866</v>
@@ -1642,13 +1642,13 @@
         <v>0.4235226668603078</v>
       </c>
       <c r="J25" t="n">
-        <v>3.805887039820029</v>
+        <v>4.479174050770306</v>
       </c>
       <c r="K25" t="n">
         <v>1.180349583317209</v>
       </c>
       <c r="L25" t="n">
-        <v>3.880779623543889</v>
+        <v>3.847416695453858</v>
       </c>
       <c r="M25" t="n">
         <v>0.3445882767451607</v>

--- a/codigo_final_organizado/Simulaciones/lineal_NO_estacionario/resultados_2_ESCENARIOS_ARIMA.xlsx
+++ b/codigo_final_organizado/Simulaciones/lineal_NO_estacionario/resultados_2_ESCENARIOS_ARIMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,67 +441,62 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>proces_simulacion</t>
+          <t>Config</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Distribución</t>
+          <t>Dist</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Varianza error</t>
+          <t>Var</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Valor_Observado</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Sieve Bootstrap</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LSPM</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LSPMW</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>AREPD</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MCPS</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>AV-MCPS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Block Bootstrapping</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>DeepAR</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>EnCQR-LSTM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
         </is>
       </c>
     </row>
@@ -523,34 +518,31 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>25.77679270376048</v>
+        <v>9.431416622426106</v>
       </c>
       <c r="F2" t="n">
-        <v>26.38884429336736</v>
+        <v>0.6034403163378633</v>
       </c>
       <c r="G2" t="n">
-        <v>4.048033501727672</v>
+        <v>1.090342209803775</v>
       </c>
       <c r="H2" t="n">
-        <v>27.25445264277199</v>
+        <v>1.030737942723862</v>
       </c>
       <c r="I2" t="n">
-        <v>7.178023577499991</v>
+        <v>9.338218126694096</v>
       </c>
       <c r="J2" t="n">
-        <v>7.753890582708475</v>
+        <v>1.28235508404496</v>
       </c>
       <c r="K2" t="n">
-        <v>1.696148608704593</v>
+        <v>0.7285530766120472</v>
       </c>
       <c r="L2" t="n">
-        <v>1.640365938249483</v>
+        <v>0.9252499376455727</v>
       </c>
       <c r="M2" t="n">
-        <v>8.004272354796516</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.2480225622313161</v>
+        <v>4.453411480981644</v>
       </c>
     </row>
     <row r="3">
@@ -571,34 +563,31 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>27.31157121970884</v>
+        <v>6.449663406046669</v>
       </c>
       <c r="F3" t="n">
-        <v>27.67947691269417</v>
+        <v>0.6671810554313512</v>
       </c>
       <c r="G3" t="n">
-        <v>5.448299549476426</v>
+        <v>2.624760366377263</v>
       </c>
       <c r="H3" t="n">
-        <v>27.74069953174611</v>
+        <v>1.718129515370285</v>
       </c>
       <c r="I3" t="n">
-        <v>8.659041378755036</v>
+        <v>6.261856080370594</v>
       </c>
       <c r="J3" t="n">
-        <v>8.041012805668172</v>
+        <v>3.870656374811177</v>
       </c>
       <c r="K3" t="n">
-        <v>1.258594310908949</v>
+        <v>2.29721881720215</v>
       </c>
       <c r="L3" t="n">
-        <v>3.168949587529626</v>
+        <v>0.6286141520392501</v>
       </c>
       <c r="M3" t="n">
-        <v>9.8882084840251</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.8682714849357696</v>
+        <v>4.154283327542811</v>
       </c>
     </row>
     <row r="4">
@@ -619,34 +608,31 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>28.12308079889016</v>
+        <v>6.203829959999227</v>
       </c>
       <c r="F4" t="n">
-        <v>28.27288603096032</v>
+        <v>0.5733388017477143</v>
       </c>
       <c r="G4" t="n">
-        <v>6.064843030496117</v>
+        <v>0.6083894277125889</v>
       </c>
       <c r="H4" t="n">
-        <v>29.59199753506476</v>
+        <v>1.883494784104814</v>
       </c>
       <c r="I4" t="n">
-        <v>9.508121753665346</v>
+        <v>6.060559368515072</v>
       </c>
       <c r="J4" t="n">
-        <v>8.143101297267171</v>
+        <v>4.130795947178142</v>
       </c>
       <c r="K4" t="n">
-        <v>1.424450251754674</v>
+        <v>2.543234392079143</v>
       </c>
       <c r="L4" t="n">
-        <v>3.980459166710953</v>
+        <v>0.5987995263394515</v>
       </c>
       <c r="M4" t="n">
-        <v>10.22649265551425</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.2737584616091717</v>
+        <v>4.184874898643945</v>
       </c>
     </row>
     <row r="5">
@@ -667,34 +653,31 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>26.92358613791478</v>
+        <v>6.204141402974821</v>
       </c>
       <c r="F5" t="n">
-        <v>26.84805945593586</v>
+        <v>0.5597295148297249</v>
       </c>
       <c r="G5" t="n">
-        <v>13.46044317679891</v>
+        <v>0.5710221411149035</v>
       </c>
       <c r="H5" t="n">
-        <v>27.52466958217565</v>
+        <v>2.197348274878483</v>
       </c>
       <c r="I5" t="n">
-        <v>8.140651392009939</v>
+        <v>5.752735368970704</v>
       </c>
       <c r="J5" t="n">
-        <v>7.654778896716499</v>
+        <v>4.981262602724478</v>
       </c>
       <c r="K5" t="n">
-        <v>1.024645684749753</v>
+        <v>0.6481452852332995</v>
       </c>
       <c r="L5" t="n">
-        <v>2.78096450573557</v>
+        <v>0.5767410906215612</v>
       </c>
       <c r="M5" t="n">
-        <v>9.827963373324518</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.089193391690594</v>
+        <v>4.199841147201801</v>
       </c>
     </row>
     <row r="6">
@@ -715,34 +698,31 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>25.79666630224374</v>
+        <v>6.200047313597044</v>
       </c>
       <c r="F6" t="n">
-        <v>25.54199208562319</v>
+        <v>0.5880309184666153</v>
       </c>
       <c r="G6" t="n">
-        <v>12.8164289063314</v>
+        <v>0.6180478371027555</v>
       </c>
       <c r="H6" t="n">
-        <v>26.01155197083243</v>
+        <v>1.794710076646943</v>
       </c>
       <c r="I6" t="n">
-        <v>6.843499207440418</v>
+        <v>6.049038984803911</v>
       </c>
       <c r="J6" t="n">
-        <v>7.355878924910716</v>
+        <v>4.315304896908168</v>
       </c>
       <c r="K6" t="n">
-        <v>2.283924124297533</v>
+        <v>0.592010909106959</v>
       </c>
       <c r="L6" t="n">
-        <v>1.659683075975207</v>
+        <v>0.6311670234967147</v>
       </c>
       <c r="M6" t="n">
-        <v>8.079551400881245</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.2295687001863469</v>
+        <v>4.279214884887651</v>
       </c>
     </row>
     <row r="7">
@@ -763,34 +743,31 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>25.43791639263172</v>
+        <v>8.895696926832573</v>
       </c>
       <c r="F7" t="n">
-        <v>24.99562737902271</v>
+        <v>0.5970399658310001</v>
       </c>
       <c r="G7" t="n">
-        <v>12.62304556724226</v>
+        <v>2.628044916238056</v>
       </c>
       <c r="H7" t="n">
-        <v>25.26681073416658</v>
+        <v>0.6908240032826803</v>
       </c>
       <c r="I7" t="n">
-        <v>6.649759785242955</v>
+        <v>8.443759696079148</v>
       </c>
       <c r="J7" t="n">
-        <v>7.260943120769692</v>
+        <v>1.592918511940542</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3888010061631926</v>
+        <v>0.6390107675206591</v>
       </c>
       <c r="L7" t="n">
-        <v>1.311750924950219</v>
+        <v>0.8433632186421911</v>
       </c>
       <c r="M7" t="n">
-        <v>7.486392247146318</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.60217061690214</v>
+        <v>4.65088071507278</v>
       </c>
     </row>
     <row r="8">
@@ -811,34 +788,31 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>24.40291983537906</v>
+        <v>6.729745446880004</v>
       </c>
       <c r="F8" t="n">
-        <v>23.85366320880505</v>
+        <v>0.6745145114032006</v>
       </c>
       <c r="G8" t="n">
-        <v>9.077045797854424</v>
+        <v>2.027023101144679</v>
       </c>
       <c r="H8" t="n">
-        <v>25.7606110372136</v>
+        <v>1.673633437087287</v>
       </c>
       <c r="I8" t="n">
-        <v>5.741283396547754</v>
+        <v>6.061320807684387</v>
       </c>
       <c r="J8" t="n">
-        <v>7.093102683994399</v>
+        <v>3.872748214043367</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2593765398413435</v>
+        <v>2.277279120465866</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4963340482737552</v>
+        <v>0.7166219219571826</v>
       </c>
       <c r="M8" t="n">
-        <v>6.879852122837689</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.3722568210927845</v>
+        <v>4.32513707984631</v>
       </c>
     </row>
     <row r="9">
@@ -859,34 +833,31 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>22.96712407901793</v>
+        <v>5.467527856409534</v>
       </c>
       <c r="F9" t="n">
-        <v>22.41577226909466</v>
+        <v>0.5714827596908043</v>
       </c>
       <c r="G9" t="n">
-        <v>7.726656597302703</v>
+        <v>0.7897872373181293</v>
       </c>
       <c r="H9" t="n">
-        <v>23.55004044172754</v>
+        <v>3.142913640395398</v>
       </c>
       <c r="I9" t="n">
-        <v>4.207604559957425</v>
+        <v>4.871114423642576</v>
       </c>
       <c r="J9" t="n">
-        <v>6.920808703097292</v>
+        <v>5.859206457935198</v>
       </c>
       <c r="K9" t="n">
-        <v>1.401420279128226</v>
+        <v>1.209425646300251</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3627216552763695</v>
+        <v>0.5926537215789064</v>
       </c>
       <c r="M9" t="n">
-        <v>5.824078126747813</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.3592497067836414</v>
+        <v>4.189818103178562</v>
       </c>
     </row>
     <row r="10">
@@ -907,34 +878,31 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>23.47008885455995</v>
+        <v>5.852710993309923</v>
       </c>
       <c r="F10" t="n">
-        <v>22.66351699941429</v>
+        <v>0.5856488336817348</v>
       </c>
       <c r="G10" t="n">
-        <v>8.499590002494411</v>
+        <v>0.7081963388278326</v>
       </c>
       <c r="H10" t="n">
-        <v>23.66748617903899</v>
+        <v>2.724663495205236</v>
       </c>
       <c r="I10" t="n">
-        <v>5.086482993125527</v>
+        <v>5.131574397400489</v>
       </c>
       <c r="J10" t="n">
-        <v>6.983565512867058</v>
+        <v>5.454401369405319</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2238526370027079</v>
+        <v>0.9147180391508603</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2270390024008371</v>
+        <v>0.5898168480944671</v>
       </c>
       <c r="M10" t="n">
-        <v>6.175841184074944</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.9581768297437723</v>
+        <v>4.231629954501704</v>
       </c>
     </row>
     <row r="11">
@@ -955,34 +923,31 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>21.48748792140033</v>
+        <v>4.102861319591028</v>
       </c>
       <c r="F11" t="n">
-        <v>20.81667481561695</v>
+        <v>0.6006865925417714</v>
       </c>
       <c r="G11" t="n">
-        <v>6.74854761785982</v>
+        <v>2.415007346623273</v>
       </c>
       <c r="H11" t="n">
-        <v>22.21365562209478</v>
+        <v>5.540301958002827</v>
       </c>
       <c r="I11" t="n">
-        <v>3.387440512298052</v>
+        <v>3.416708364731265</v>
       </c>
       <c r="J11" t="n">
-        <v>6.785013958627149</v>
+        <v>1.885152874808379</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2582717380671372</v>
+        <v>2.53606737940872</v>
       </c>
       <c r="L11" t="n">
-        <v>1.595377886359134</v>
+        <v>0.6201168557789459</v>
       </c>
       <c r="M11" t="n">
-        <v>5.42257764916252</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.63227075919059</v>
+        <v>4.001999466201365</v>
       </c>
     </row>
     <row r="12">
@@ -1003,34 +968,31 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>18.42521173482216</v>
+        <v>4.7904541843152</v>
       </c>
       <c r="F12" t="n">
-        <v>18.20863591133639</v>
+        <v>0.5771074836991383</v>
       </c>
       <c r="G12" t="n">
-        <v>4.188814006446254</v>
+        <v>1.504099137377762</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28450161634704</v>
+        <v>3.872548447714624</v>
       </c>
       <c r="I12" t="n">
-        <v>1.582492011778716</v>
+        <v>4.293343253137023</v>
       </c>
       <c r="J12" t="n">
-        <v>6.502521479593783</v>
+        <v>0.710638535517141</v>
       </c>
       <c r="K12" t="n">
-        <v>4.561179990807794</v>
+        <v>1.052453718235312</v>
       </c>
       <c r="L12" t="n">
-        <v>4.649790550608018</v>
+        <v>0.5784613339063079</v>
       </c>
       <c r="M12" t="n">
-        <v>3.603717699625218</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.9166889945213713</v>
+        <v>4.165693803944606</v>
       </c>
     </row>
     <row r="13">
@@ -1051,34 +1013,31 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>15.20591596892681</v>
+        <v>5.343660130556376</v>
       </c>
       <c r="F13" t="n">
-        <v>15.62418515037838</v>
+        <v>0.549795710879797</v>
       </c>
       <c r="G13" t="n">
-        <v>2.154793125159821</v>
+        <v>0.7133197770847598</v>
       </c>
       <c r="H13" t="n">
-        <v>16.52818048991558</v>
+        <v>3.163839323000921</v>
       </c>
       <c r="I13" t="n">
-        <v>1.091220449544552</v>
+        <v>4.713073787283776</v>
       </c>
       <c r="J13" t="n">
-        <v>6.227900085676524</v>
+        <v>0.6431125793939781</v>
       </c>
       <c r="K13" t="n">
-        <v>4.269030294329501</v>
+        <v>0.6748287564411439</v>
       </c>
       <c r="L13" t="n">
-        <v>7.869086316503365</v>
+        <v>0.5811946686320791</v>
       </c>
       <c r="M13" t="n">
-        <v>2.873105880467877</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.6314215351574861</v>
+        <v>4.250869453124515</v>
       </c>
     </row>
     <row r="14">
@@ -1099,34 +1058,31 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>-9.513637903215555</v>
+        <v>16.35241274566292</v>
       </c>
       <c r="F14" t="n">
-        <v>2.713024857441768</v>
+        <v>0.5655590530455767</v>
       </c>
       <c r="G14" t="n">
-        <v>1.083983864994918</v>
+        <v>0.5635938853258495</v>
       </c>
       <c r="H14" t="n">
-        <v>3.461132737980023</v>
+        <v>0.5659296797353902</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6076242359217584</v>
+        <v>15.36234057975035</v>
       </c>
       <c r="J14" t="n">
-        <v>4.614765467253378</v>
+        <v>5.044890987894985</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9511607005443572</v>
+        <v>4.511039962615923</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9383607369115603</v>
+        <v>1.750115830285023</v>
       </c>
       <c r="M14" t="n">
-        <v>1.54291728662953</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.6417114038963566</v>
+        <v>7.154534277123108</v>
       </c>
     </row>
     <row r="15">
@@ -1147,34 +1103,31 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>-10.33987893437161</v>
+        <v>14.05135560237464</v>
       </c>
       <c r="F15" t="n">
-        <v>2.914031874512331</v>
+        <v>0.5879439786984121</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6001115316167608</v>
+        <v>1.929767728374565</v>
       </c>
       <c r="H15" t="n">
-        <v>3.549364824109009</v>
+        <v>1.944256697516747</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5071369742717423</v>
+        <v>12.97633347145085</v>
       </c>
       <c r="J15" t="n">
-        <v>4.547959936963774</v>
+        <v>3.06154502263344</v>
       </c>
       <c r="K15" t="n">
-        <v>1.115036637136485</v>
+        <v>3.033288081738797</v>
       </c>
       <c r="L15" t="n">
-        <v>1.742011019337234</v>
+        <v>0.690919064766405</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9143657848847216</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.2626837967040409</v>
+        <v>5.981888920023534</v>
       </c>
     </row>
     <row r="16">
@@ -1195,34 +1148,31 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>-9.678583996826713</v>
+        <v>13.54505179062778</v>
       </c>
       <c r="F16" t="n">
-        <v>2.71835923095414</v>
+        <v>0.5560457419252326</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4713446153494197</v>
+        <v>0.5700331813708162</v>
       </c>
       <c r="H16" t="n">
-        <v>3.103258029216448</v>
+        <v>1.939781033267264</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6891476966100742</v>
+        <v>12.86937557786697</v>
       </c>
       <c r="J16" t="n">
-        <v>4.65399111902201</v>
+        <v>3.034692139613466</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3099568895686475</v>
+        <v>3.036764015219081</v>
       </c>
       <c r="L16" t="n">
-        <v>1.093777599097028</v>
+        <v>1.011618692054478</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6286480617335216</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.4420762879481929</v>
+        <v>5.958098750292578</v>
       </c>
     </row>
     <row r="17">
@@ -1243,34 +1193,31 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>-9.16664909727341</v>
+        <v>12.03605288357395</v>
       </c>
       <c r="F17" t="n">
-        <v>2.58070702680408</v>
+        <v>0.5814491283233405</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4945780097958014</v>
+        <v>1.199683172525698</v>
       </c>
       <c r="H17" t="n">
-        <v>2.984728619664634</v>
+        <v>3.559275169588247</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7129914068430308</v>
+        <v>11.23605285379742</v>
       </c>
       <c r="J17" t="n">
-        <v>4.738177902174329</v>
+        <v>2.035313565531658</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8485175892015747</v>
+        <v>2.446327867535383</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6336883705526255</v>
+        <v>0.6152297611881646</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3438073669416092</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.2235626348986565</v>
+        <v>5.549119058895283</v>
       </c>
     </row>
     <row r="18">
@@ -1291,34 +1238,31 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-9.54525269354251</v>
+        <v>12.91003234784671</v>
       </c>
       <c r="F18" t="n">
-        <v>2.646447249450995</v>
+        <v>0.5577171866494309</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4367204530036024</v>
+        <v>0.7167601136957625</v>
       </c>
       <c r="H18" t="n">
-        <v>3.057552617977406</v>
+        <v>2.709967240663472</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4074878344424646</v>
+        <v>11.92136123910341</v>
       </c>
       <c r="J18" t="n">
-        <v>4.713101227274123</v>
+        <v>2.515856386367323</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2589726304000478</v>
+        <v>2.71187690831065</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9673456510876892</v>
+        <v>1.128212447628545</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5828479377361767</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.2582332359472873</v>
+        <v>5.75046563975997</v>
       </c>
     </row>
     <row r="19">
@@ -1339,34 +1283,31 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>-10.60866950796466</v>
+        <v>17.09207893029997</v>
       </c>
       <c r="F19" t="n">
-        <v>2.930790275888763</v>
+        <v>0.5873662367321626</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6065195826072526</v>
+        <v>3.215305976806175</v>
       </c>
       <c r="H19" t="n">
-        <v>3.59160502022614</v>
+        <v>0.6740511285754974</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5619756823561046</v>
+        <v>15.37671740976397</v>
       </c>
       <c r="J19" t="n">
-        <v>4.604981200736534</v>
+        <v>5.47730739923682</v>
       </c>
       <c r="K19" t="n">
-        <v>0.884974239984561</v>
+        <v>4.808551002173953</v>
       </c>
       <c r="L19" t="n">
-        <v>2.008066509097609</v>
+        <v>3.263631236914846</v>
       </c>
       <c r="M19" t="n">
-        <v>0.90652685398622</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.5204247234018777</v>
+        <v>7.479693904942249</v>
       </c>
     </row>
     <row r="20">
@@ -1387,34 +1328,31 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>-11.00898165851836</v>
+        <v>16.2824196642181</v>
       </c>
       <c r="F20" t="n">
-        <v>3.051435999246952</v>
+        <v>0.5871829590502432</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4908770005380201</v>
+        <v>0.579819367383154</v>
       </c>
       <c r="H20" t="n">
-        <v>3.353642042453706</v>
+        <v>0.5643504459120864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4249044346260378</v>
+        <v>14.8975017561395</v>
       </c>
       <c r="J20" t="n">
-        <v>4.574514404008129</v>
+        <v>5.311543401075395</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7183200351237652</v>
+        <v>4.590126056919493</v>
       </c>
       <c r="L20" t="n">
-        <v>2.407420008542676</v>
+        <v>1.976282589894385</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9369003138120277</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.2559934816268089</v>
+        <v>7.169116043138203</v>
       </c>
     </row>
     <row r="21">
@@ -1435,34 +1373,31 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-11.10656357758912</v>
+        <v>17.11806180767642</v>
       </c>
       <c r="F21" t="n">
-        <v>3.070495435058034</v>
+        <v>0.576921950052523</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5115864902153533</v>
+        <v>1.0007066714147</v>
       </c>
       <c r="H21" t="n">
-        <v>3.542000770356989</v>
+        <v>1.333810669193235</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4268472660096853</v>
+        <v>16.27689857878718</v>
       </c>
       <c r="J21" t="n">
-        <v>4.57940770810222</v>
+        <v>7.064831060951668</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2352233765929164</v>
+        <v>6.264974785211367</v>
       </c>
       <c r="L21" t="n">
-        <v>2.50500192761343</v>
+        <v>2.948696383224033</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8993892949380956</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.238907042440035</v>
+        <v>8.139742383582629</v>
       </c>
     </row>
     <row r="22">
@@ -1483,34 +1418,31 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>-10.9181669550724</v>
+        <v>18.33931843449969</v>
       </c>
       <c r="F22" t="n">
-        <v>2.984332605994403</v>
+        <v>0.5596318625928153</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4957814541221648</v>
+        <v>1.169716554513284</v>
       </c>
       <c r="H22" t="n">
-        <v>3.569382153133348</v>
+        <v>2.785418940923909</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5007390406270682</v>
+        <v>17.71221773430168</v>
       </c>
       <c r="J22" t="n">
-        <v>4.616943023205891</v>
+        <v>8.340317317147482</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2351275295931139</v>
+        <v>7.631343028206445</v>
       </c>
       <c r="L22" t="n">
-        <v>2.316605305096711</v>
+        <v>3.664136411228335</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9227228598958028</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.2959805999571739</v>
+        <v>9.257020273593973</v>
       </c>
     </row>
     <row r="23">
@@ -1531,34 +1463,31 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>-10.72618923023164</v>
+        <v>16.67102736924973</v>
       </c>
       <c r="F23" t="n">
-        <v>2.897713609847562</v>
+        <v>0.5682374056288938</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4477892848857614</v>
+        <v>1.297344629515131</v>
       </c>
       <c r="H23" t="n">
-        <v>3.087841910245526</v>
+        <v>1.132765660392935</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5291812806323573</v>
+        <v>15.76141096925254</v>
       </c>
       <c r="J23" t="n">
-        <v>4.653239657890016</v>
+        <v>6.453718513913282</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3354270644351688</v>
+        <v>5.727833698292872</v>
       </c>
       <c r="L23" t="n">
-        <v>2.124627580255954</v>
+        <v>1.844448168463608</v>
       </c>
       <c r="M23" t="n">
-        <v>0.835514025916457</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.2270805974820927</v>
+        <v>7.595478898207298</v>
       </c>
     </row>
     <row r="24">
@@ -1579,34 +1508,31 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>-12.2001614671585</v>
+        <v>18.64348529470522</v>
       </c>
       <c r="F24" t="n">
-        <v>3.471467837435296</v>
+        <v>0.5813697409763349</v>
       </c>
       <c r="G24" t="n">
-        <v>1.364515537768168</v>
+        <v>0.8197063707340567</v>
       </c>
       <c r="H24" t="n">
-        <v>3.960322399360249</v>
+        <v>2.11788974226913</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6896507418452442</v>
+        <v>16.74602599778856</v>
       </c>
       <c r="J24" t="n">
-        <v>4.494089830806232</v>
+        <v>7.834910365558895</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8930313991182773</v>
+        <v>7.101745644251296</v>
       </c>
       <c r="L24" t="n">
-        <v>3.598599817182818</v>
+        <v>2.915410755502225</v>
       </c>
       <c r="M24" t="n">
-        <v>1.800956509854866</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.061206442349944</v>
+        <v>8.280288325208884</v>
       </c>
     </row>
     <row r="25">
@@ -1627,34 +1553,31 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>-12.44897834542954</v>
+        <v>17.56501296895145</v>
       </c>
       <c r="F25" t="n">
-        <v>3.578279186158984</v>
+        <v>0.5799421493479496</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2748203026106002</v>
+        <v>0.6739514456557296</v>
       </c>
       <c r="H25" t="n">
-        <v>4.045898335052354</v>
+        <v>1.617867240207496</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4235226668603078</v>
+        <v>16.08300501899016</v>
       </c>
       <c r="J25" t="n">
-        <v>4.479174050770306</v>
+        <v>7.05466460587552</v>
       </c>
       <c r="K25" t="n">
-        <v>1.180349583317209</v>
+        <v>6.3499831034392</v>
       </c>
       <c r="L25" t="n">
-        <v>3.847416695453858</v>
+        <v>2.36493459367078</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3445882767451607</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.3421100521710343</v>
+        <v>7.723107849688603</v>
       </c>
     </row>
   </sheetData>
